--- a/scale_of_importance.xlsx
+++ b/scale_of_importance.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/g/Downloads/project-dms/main/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246C835F-B4F8-244B-88F9-BAC52F3F5B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050"/>
+    <workbookView xWindow="480" yWindow="500" windowWidth="23000" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +48,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -107,7 +113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -124,12 +130,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -140,14 +140,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -185,7 +188,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -257,7 +260,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -430,104 +433,98 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="6"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -536,24 +533,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
